--- a/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
+++ b/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14863" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14850" uniqueCount="291">
   <si>
     <t>Meeting name</t>
   </si>
@@ -27,7 +27,7 @@
     <t/>
   </si>
   <si>
-    <t>Fri 2018-06-15 15:26</t>
+    <t>Mon 2018-06-25 14:17</t>
   </si>
   <si>
     <t>Constraint</t>
@@ -37,30 +37,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Do all meetings as soon as possible</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Minimum TimeGrains break between two consecutive meetings</t>
-  </si>
-  <si>
-    <t>Overlapping meetings</t>
-  </si>
-  <si>
-    <t>Assign larger rooms first</t>
-  </si>
-  <si>
-    <t>Room Stability</t>
-  </si>
-  <si>
-    <t>Required and preferred attendance conflict</t>
-  </si>
-  <si>
-    <t>Preferred attendance conflict</t>
   </si>
   <si>
     <t>Room conflict</t>
@@ -79,6 +55,27 @@
   </si>
   <si>
     <t>Entire group meeting not scheduled</t>
+  </si>
+  <si>
+    <t>Required and preferred attendance conflict</t>
+  </si>
+  <si>
+    <t>Preferred attendance conflict</t>
+  </si>
+  <si>
+    <t>Do all meetings as soon as possible</t>
+  </si>
+  <si>
+    <t>Minimum TimeGrains break between two consecutive meetings</t>
+  </si>
+  <si>
+    <t>Overlapping meetings</t>
+  </si>
+  <si>
+    <t>Assign larger rooms first</t>
+  </si>
+  <si>
+    <t>Room Stability</t>
   </si>
   <si>
     <t>Full name</t>
@@ -1039,7 +1036,7 @@
   <cols>
     <col min="1" max="1" width="66.828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.46484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1069,8 +1066,8 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="B4" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1078,10 +1075,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -1089,10 +1086,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -1100,10 +1097,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -1111,22 +1108,32 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
+      <c r="B10" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -1136,8 +1143,8 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
+      <c r="B11" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -1148,8 +1155,8 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
+      <c r="B13" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -1159,8 +1166,8 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
+      <c r="B14" s="2" t="n">
+        <v>100.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -1170,8 +1177,8 @@
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
+      <c r="B15" s="2" t="n">
+        <v>10.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -1181,8 +1188,8 @@
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
+      <c r="B16" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -1192,24 +1199,14 @@
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
+      <c r="B17" s="2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="18"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -1232,207 +1229,207 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1463,30 +1460,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1501,15 +1498,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1524,15 +1521,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1547,15 +1544,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -1570,15 +1567,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -1593,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>1</v>
@@ -1601,7 +1598,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -1616,15 +1613,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -1639,15 +1636,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -1662,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>1</v>
@@ -1670,7 +1667,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -1685,15 +1682,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -1708,15 +1705,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
@@ -1731,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>1</v>
@@ -1739,7 +1736,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -1754,15 +1751,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
@@ -1777,15 +1774,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -1800,15 +1797,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -1823,15 +1820,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -1846,15 +1843,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
@@ -1869,15 +1866,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
@@ -1892,15 +1889,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
@@ -1915,15 +1912,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
@@ -1938,15 +1935,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -1961,15 +1958,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -1984,15 +1981,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
@@ -2007,15 +2004,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
@@ -2030,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>1</v>
@@ -2038,7 +2035,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -2053,15 +2050,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1</v>
@@ -2076,15 +2073,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -2099,15 +2096,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
@@ -2122,15 +2119,15 @@
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
@@ -2145,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>1</v>
@@ -2153,7 +2150,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
@@ -2168,15 +2165,15 @@
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -2191,15 +2188,15 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
@@ -2214,15 +2211,15 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -2237,15 +2234,15 @@
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
@@ -2260,15 +2257,15 @@
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
@@ -2283,15 +2280,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1</v>
@@ -2306,15 +2303,15 @@
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -2329,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>1</v>
@@ -2337,7 +2334,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1</v>
@@ -2352,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>1</v>
@@ -2360,7 +2357,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1</v>
@@ -2375,15 +2372,15 @@
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1</v>
@@ -2398,15 +2395,15 @@
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
@@ -2421,15 +2418,15 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1</v>
@@ -2444,15 +2441,15 @@
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
@@ -2467,15 +2464,15 @@
         <v>1</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1</v>
@@ -2490,15 +2487,15 @@
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1</v>
@@ -2513,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>1</v>
@@ -2521,7 +2518,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>1</v>
@@ -2536,15 +2533,15 @@
         <v>1</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>1</v>
@@ -2559,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>1</v>
@@ -2567,7 +2564,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -2582,15 +2579,15 @@
         <v>1</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1</v>
@@ -2605,15 +2602,15 @@
         <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>1</v>
@@ -2628,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>1</v>
@@ -2659,86 +2656,86 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2764,15 +2761,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>30.0</v>
@@ -2780,7 +2777,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>20.0</v>
@@ -2788,7 +2785,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>16.0</v>
@@ -2796,7 +2793,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>14.0</v>
@@ -2804,7 +2801,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>12.0</v>
@@ -2998,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3106,331 +3103,331 @@
         <v>1</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP1" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>1</v>
@@ -3480,492 +3477,492 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="AL2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BU2" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="BV2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BW2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BX2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CP2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="DE2" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="DF2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DG2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DH2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DH2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DQ2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DR2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="DV2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="DV2" s="1" t="s">
+      <c r="DW2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="DW2" s="1" t="s">
+      <c r="DX2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="DX2" s="1" t="s">
+      <c r="DY2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="DY2" s="1" t="s">
+      <c r="DZ2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="DZ2" s="1" t="s">
+      <c r="EA2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="EA2" s="1" t="s">
+      <c r="EB2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="EB2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="EC2" s="1" t="s">
+      <c r="ED2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="ED2" s="1" t="s">
+      <c r="EE2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="EE2" s="1" t="s">
+      <c r="EF2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="EF2" s="1" t="s">
+      <c r="EG2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="EG2" s="1" t="s">
+      <c r="EH2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="EH2" s="1" t="s">
+      <c r="EI2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="EI2" s="1" t="s">
+      <c r="EJ2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="EJ2" s="1" t="s">
+      <c r="EK2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="EK2" s="1" t="s">
+      <c r="EL2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="EL2" s="1" t="s">
+      <c r="EM2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="EM2" s="1" t="s">
+      <c r="EN2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="EO2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="EO2" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="EP2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="EQ2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="ER2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="ER2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="EV2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="EW2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="EX2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="EX2" s="1" t="s">
+      <c r="EY2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="EY2" s="1" t="s">
+      <c r="EZ2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="EZ2" s="1" t="s">
+      <c r="FA2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="FB2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="FC2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="FD2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="FE2" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="FE2" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -4450,7 +4447,7 @@
     </row>
     <row r="4" ht="30.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>1</v>
@@ -4935,7 +4932,7 @@
     </row>
     <row r="5" ht="30.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>1</v>
@@ -5420,7 +5417,7 @@
     </row>
     <row r="6" ht="30.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>1</v>
@@ -5905,7 +5902,7 @@
     </row>
     <row r="7" ht="30.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>1</v>
@@ -6587,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -6695,331 +6692,331 @@
         <v>1</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="ER1" s="1" t="s">
         <v>1</v>
@@ -7069,498 +7066,498 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="AM2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BV2" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="BW2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BX2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BY2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CP2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="DF2" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="DG2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DH2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DI2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DQ2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DR2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="DV2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="DV2" s="1" t="s">
+      <c r="DW2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="DW2" s="1" t="s">
+      <c r="DX2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="DX2" s="1" t="s">
+      <c r="DY2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="DY2" s="1" t="s">
+      <c r="DZ2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="DZ2" s="1" t="s">
+      <c r="EA2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="EA2" s="1" t="s">
+      <c r="EB2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="EB2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="EC2" s="1" t="s">
+      <c r="ED2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="ED2" s="1" t="s">
+      <c r="EE2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="EE2" s="1" t="s">
+      <c r="EF2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="EF2" s="1" t="s">
+      <c r="EG2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="EG2" s="1" t="s">
+      <c r="EH2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="EH2" s="1" t="s">
+      <c r="EI2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="EI2" s="1" t="s">
+      <c r="EJ2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="EJ2" s="1" t="s">
+      <c r="EK2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="EK2" s="1" t="s">
+      <c r="EL2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="EL2" s="1" t="s">
+      <c r="EM2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="EM2" s="1" t="s">
+      <c r="EN2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="EO2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="EO2" s="1" t="s">
+      <c r="EP2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="EP2" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="EQ2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="ER2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="ES2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="EV2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="EW2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="EX2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="EX2" s="1" t="s">
+      <c r="EY2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="EY2" s="1" t="s">
+      <c r="EZ2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="EZ2" s="1" t="s">
+      <c r="FA2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="FB2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="FC2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="FD2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="FE2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="FE2" s="1" t="s">
+      <c r="FF2" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="FF2" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
@@ -8045,10 +8042,10 @@
     </row>
     <row r="4" ht="30.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
@@ -8533,10 +8530,10 @@
     </row>
     <row r="5" ht="30.0" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>1</v>
@@ -9021,10 +9018,10 @@
     </row>
     <row r="6" ht="30.0" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>1</v>
@@ -9509,10 +9506,10 @@
     </row>
     <row r="7" ht="30.0" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1</v>
@@ -9997,10 +9994,10 @@
     </row>
     <row r="8" ht="30.0" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>1</v>
@@ -10485,10 +10482,10 @@
     </row>
     <row r="9" ht="30.0" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>1</v>
@@ -10973,10 +10970,10 @@
     </row>
     <row r="10" ht="30.0" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>1</v>
@@ -11461,10 +11458,10 @@
     </row>
     <row r="11" ht="30.0" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>1</v>
@@ -11949,10 +11946,10 @@
     </row>
     <row r="12" ht="30.0" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>1</v>
@@ -12437,10 +12434,10 @@
     </row>
     <row r="13" ht="30.0" customHeight="true">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>1</v>
@@ -12925,10 +12922,10 @@
     </row>
     <row r="14" ht="30.0" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>1</v>
@@ -13413,10 +13410,10 @@
     </row>
     <row r="15" ht="30.0" customHeight="true">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>1</v>
@@ -13901,10 +13898,10 @@
     </row>
     <row r="16" ht="30.0" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>1</v>
@@ -14389,10 +14386,10 @@
     </row>
     <row r="17" ht="30.0" customHeight="true">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>1</v>
@@ -14877,10 +14874,10 @@
     </row>
     <row r="18" ht="30.0" customHeight="true">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>1</v>
@@ -15365,10 +15362,10 @@
     </row>
     <row r="19" ht="30.0" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>1</v>
@@ -15853,10 +15850,10 @@
     </row>
     <row r="20" ht="30.0" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>1</v>
@@ -16341,10 +16338,10 @@
     </row>
     <row r="21" ht="30.0" customHeight="true">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>1</v>
@@ -16829,10 +16826,10 @@
     </row>
     <row r="22" ht="30.0" customHeight="true">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>1</v>
@@ -17317,10 +17314,10 @@
     </row>
     <row r="23" ht="30.0" customHeight="true">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>1</v>
@@ -17805,10 +17802,10 @@
     </row>
     <row r="24" ht="30.0" customHeight="true">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>1</v>
@@ -18293,10 +18290,10 @@
     </row>
     <row r="25" ht="30.0" customHeight="true">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>1</v>
@@ -18781,10 +18778,10 @@
     </row>
     <row r="26" ht="30.0" customHeight="true">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>1</v>
@@ -19269,10 +19266,10 @@
     </row>
     <row r="27" ht="30.0" customHeight="true">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>1</v>
@@ -19757,10 +19754,10 @@
     </row>
     <row r="28" ht="30.0" customHeight="true">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>1</v>
@@ -20245,10 +20242,10 @@
     </row>
     <row r="29" ht="30.0" customHeight="true">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>1</v>
@@ -20733,10 +20730,10 @@
     </row>
     <row r="30" ht="30.0" customHeight="true">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>1</v>
@@ -21221,10 +21218,10 @@
     </row>
     <row r="31" ht="30.0" customHeight="true">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>1</v>
@@ -21709,10 +21706,10 @@
     </row>
     <row r="32" ht="30.0" customHeight="true">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>1</v>
@@ -22197,10 +22194,10 @@
     </row>
     <row r="33" ht="30.0" customHeight="true">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>1</v>
@@ -22685,10 +22682,10 @@
     </row>
     <row r="34" ht="30.0" customHeight="true">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>1</v>
@@ -23173,10 +23170,10 @@
     </row>
     <row r="35" ht="30.0" customHeight="true">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>1</v>
@@ -23661,10 +23658,10 @@
     </row>
     <row r="36" ht="30.0" customHeight="true">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>1</v>
@@ -24149,10 +24146,10 @@
     </row>
     <row r="37" ht="30.0" customHeight="true">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>1</v>
@@ -24637,10 +24634,10 @@
     </row>
     <row r="38" ht="30.0" customHeight="true">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>1</v>
@@ -25125,10 +25122,10 @@
     </row>
     <row r="39" ht="30.0" customHeight="true">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>1</v>
@@ -25613,10 +25610,10 @@
     </row>
     <row r="40" ht="30.0" customHeight="true">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>1</v>
@@ -26101,10 +26098,10 @@
     </row>
     <row r="41" ht="30.0" customHeight="true">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>1</v>
@@ -26589,10 +26586,10 @@
     </row>
     <row r="42" ht="30.0" customHeight="true">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>1</v>
@@ -27077,10 +27074,10 @@
     </row>
     <row r="43" ht="30.0" customHeight="true">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>1</v>
@@ -27565,10 +27562,10 @@
     </row>
     <row r="44" ht="30.0" customHeight="true">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>1</v>
@@ -28053,10 +28050,10 @@
     </row>
     <row r="45" ht="30.0" customHeight="true">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>1</v>
@@ -28541,10 +28538,10 @@
     </row>
     <row r="46" ht="30.0" customHeight="true">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>1</v>
@@ -29029,10 +29026,10 @@
     </row>
     <row r="47" ht="30.0" customHeight="true">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>1</v>
@@ -29517,10 +29514,10 @@
     </row>
     <row r="48" ht="30.0" customHeight="true">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>1</v>
@@ -30005,10 +30002,10 @@
     </row>
     <row r="49" ht="30.0" customHeight="true">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>1</v>
@@ -30493,10 +30490,10 @@
     </row>
     <row r="50" ht="30.0" customHeight="true">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>1</v>
@@ -30981,10 +30978,10 @@
     </row>
     <row r="51" ht="30.0" customHeight="true">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>1</v>
@@ -31469,10 +31466,10 @@
     </row>
     <row r="52" ht="30.0" customHeight="true">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>1</v>
@@ -31957,10 +31954,10 @@
     </row>
     <row r="53" ht="30.0" customHeight="true">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>1</v>
@@ -32445,10 +32442,10 @@
     </row>
     <row r="54" ht="30.0" customHeight="true">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>1</v>
@@ -32933,10 +32930,10 @@
     </row>
     <row r="55" ht="30.0" customHeight="true">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>1</v>
@@ -33421,10 +33418,10 @@
     </row>
     <row r="56" ht="30.0" customHeight="true">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>1</v>
@@ -33909,10 +33906,10 @@
     </row>
     <row r="57" ht="30.0" customHeight="true">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>1</v>
@@ -34397,10 +34394,10 @@
     </row>
     <row r="58" ht="30.0" customHeight="true">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>1</v>
@@ -34885,10 +34882,10 @@
     </row>
     <row r="59" ht="30.0" customHeight="true">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>1</v>
@@ -35373,10 +35370,10 @@
     </row>
     <row r="60" ht="30.0" customHeight="true">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>1</v>
@@ -35861,10 +35858,10 @@
     </row>
     <row r="61" ht="30.0" customHeight="true">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>1</v>
@@ -36349,10 +36346,10 @@
     </row>
     <row r="62" ht="30.0" customHeight="true">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>1</v>
@@ -36837,10 +36834,10 @@
     </row>
     <row r="63" ht="30.0" customHeight="true">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>1</v>
@@ -37325,10 +37322,10 @@
     </row>
     <row r="64" ht="30.0" customHeight="true">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>1</v>
@@ -37813,10 +37810,10 @@
     </row>
     <row r="65" ht="30.0" customHeight="true">
       <c r="A65" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>1</v>
@@ -38301,10 +38298,10 @@
     </row>
     <row r="66" ht="30.0" customHeight="true">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>1</v>
@@ -38789,10 +38786,10 @@
     </row>
     <row r="67" ht="30.0" customHeight="true">
       <c r="A67" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>1</v>
@@ -39277,10 +39274,10 @@
     </row>
     <row r="68" ht="30.0" customHeight="true">
       <c r="A68" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>1</v>
@@ -39765,10 +39762,10 @@
     </row>
     <row r="69" ht="30.0" customHeight="true">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>1</v>
@@ -40253,10 +40250,10 @@
     </row>
     <row r="70" ht="30.0" customHeight="true">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>1</v>
@@ -40741,10 +40738,10 @@
     </row>
     <row r="71" ht="30.0" customHeight="true">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>1</v>
@@ -41229,10 +41226,10 @@
     </row>
     <row r="72" ht="30.0" customHeight="true">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>1</v>
@@ -41717,10 +41714,10 @@
     </row>
     <row r="73" ht="30.0" customHeight="true">
       <c r="A73" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>1</v>
@@ -42205,10 +42202,10 @@
     </row>
     <row r="74" ht="30.0" customHeight="true">
       <c r="A74" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>1</v>
@@ -42693,10 +42690,10 @@
     </row>
     <row r="75" ht="30.0" customHeight="true">
       <c r="A75" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>1</v>
@@ -43181,10 +43178,10 @@
     </row>
     <row r="76" ht="30.0" customHeight="true">
       <c r="A76" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>1</v>
@@ -43669,10 +43666,10 @@
     </row>
     <row r="77" ht="30.0" customHeight="true">
       <c r="A77" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>1</v>
@@ -44157,10 +44154,10 @@
     </row>
     <row r="78" ht="30.0" customHeight="true">
       <c r="A78" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>1</v>
@@ -44645,10 +44642,10 @@
     </row>
     <row r="79" ht="30.0" customHeight="true">
       <c r="A79" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>1</v>
@@ -45133,10 +45130,10 @@
     </row>
     <row r="80" ht="30.0" customHeight="true">
       <c r="A80" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>1</v>
@@ -45621,10 +45618,10 @@
     </row>
     <row r="81" ht="30.0" customHeight="true">
       <c r="A81" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>1</v>
@@ -46109,10 +46106,10 @@
     </row>
     <row r="82" ht="30.0" customHeight="true">
       <c r="A82" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>1</v>
@@ -46672,7 +46669,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3"/>
@@ -46682,7 +46679,7 @@
     <row r="7"/>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9"/>
@@ -46692,7 +46689,7 @@
     <row r="13"/>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15"/>
@@ -46702,7 +46699,7 @@
     <row r="19"/>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21"/>
@@ -46712,7 +46709,7 @@
     <row r="25"/>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27"/>
@@ -46722,7 +46719,7 @@
     <row r="31"/>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33"/>
@@ -46732,7 +46729,7 @@
     <row r="37"/>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39"/>
@@ -46742,7 +46739,7 @@
     <row r="43"/>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45"/>
@@ -46752,7 +46749,7 @@
     <row r="49"/>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51"/>
@@ -46762,7 +46759,7 @@
     <row r="55"/>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57"/>
@@ -46772,7 +46769,7 @@
     <row r="61"/>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63"/>
@@ -46782,7 +46779,7 @@
     <row r="67"/>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69"/>
@@ -46792,7 +46789,7 @@
     <row r="73"/>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75"/>
@@ -46802,7 +46799,7 @@
     <row r="79"/>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81"/>
@@ -46812,7 +46809,7 @@
     <row r="85"/>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87"/>
@@ -46822,7 +46819,7 @@
     <row r="91"/>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93"/>
@@ -46832,7 +46829,7 @@
     <row r="97"/>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99"/>
@@ -46842,7 +46839,7 @@
     <row r="103"/>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105"/>
@@ -46852,7 +46849,7 @@
     <row r="109"/>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111"/>
@@ -46862,7 +46859,7 @@
     <row r="115"/>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117"/>
@@ -46872,7 +46869,7 @@
     <row r="121"/>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123"/>
@@ -46882,7 +46879,7 @@
     <row r="127"/>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129"/>
@@ -46892,7 +46889,7 @@
     <row r="133"/>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135"/>
@@ -46902,7 +46899,7 @@
     <row r="139"/>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141"/>
@@ -46912,7 +46909,7 @@
     <row r="145"/>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147"/>
@@ -46922,7 +46919,7 @@
     <row r="151"/>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="153"/>
@@ -46932,13 +46929,12 @@
     <row r="157"/>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159"/>
     <row r="160"/>
     <row r="161"/>
-    <row r="162"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:A7"/>

--- a/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
+++ b/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14901" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14899" uniqueCount="341">
   <si>
-    <t>Tue 2018-06-26 15:08</t>
+    <t>Thu 2018-07-05 09:42</t>
   </si>
   <si>
     <t>Constraint</t>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Start and end on same day</t>
-  </si>
-  <si>
-    <t>Entire group meeting not scheduled</t>
   </si>
   <si>
     <t>Required and preferred attendance conflict</t>
@@ -1264,18 +1261,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B10" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>11</v>
@@ -1287,24 +1284,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B13" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1315,7 +1312,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>100.0</v>
+        <v>10.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1326,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -1340,17 +1337,6 @@
         <v>1.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1376,207 +1362,207 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1607,30 +1593,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1645,15 +1631,15 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1668,15 +1654,15 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1691,15 +1677,15 @@
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1714,15 +1700,15 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -1737,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>5</v>
@@ -1745,7 +1731,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1760,15 +1746,15 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1783,15 +1769,15 @@
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -1806,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>5</v>
@@ -1814,7 +1800,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -1829,15 +1815,15 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -1852,15 +1838,15 @@
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -1875,7 +1861,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>5</v>
@@ -1883,7 +1869,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -1898,15 +1884,15 @@
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -1921,15 +1907,15 @@
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -1944,15 +1930,15 @@
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
@@ -1967,15 +1953,15 @@
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -1990,15 +1976,15 @@
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -2013,15 +1999,15 @@
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -2036,15 +2022,15 @@
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
@@ -2059,15 +2045,15 @@
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
@@ -2082,15 +2068,15 @@
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -2105,15 +2091,15 @@
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -2128,15 +2114,15 @@
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
@@ -2151,15 +2137,15 @@
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
@@ -2174,7 +2160,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>5</v>
@@ -2182,7 +2168,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -2197,15 +2183,15 @@
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -2220,15 +2206,15 @@
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -2243,15 +2229,15 @@
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -2266,15 +2252,15 @@
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -2289,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>5</v>
@@ -2297,7 +2283,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -2312,15 +2298,15 @@
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
@@ -2335,15 +2321,15 @@
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
@@ -2358,15 +2344,15 @@
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -2381,15 +2367,15 @@
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
@@ -2404,15 +2390,15 @@
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
@@ -2427,15 +2413,15 @@
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
@@ -2450,15 +2436,15 @@
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
@@ -2473,7 +2459,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>5</v>
@@ -2481,7 +2467,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
@@ -2496,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>5</v>
@@ -2504,7 +2490,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
@@ -2519,15 +2505,15 @@
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
@@ -2542,15 +2528,15 @@
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
@@ -2565,15 +2551,15 @@
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
@@ -2588,15 +2574,15 @@
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
@@ -2611,15 +2597,15 @@
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
@@ -2634,15 +2620,15 @@
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
@@ -2657,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>5</v>
@@ -2665,7 +2651,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -2680,15 +2666,15 @@
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
@@ -2703,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>5</v>
@@ -2711,7 +2697,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -2726,15 +2712,15 @@
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
@@ -2749,15 +2735,15 @@
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
@@ -2772,7 +2758,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>5</v>
@@ -2803,86 +2789,86 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2908,15 +2894,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>30.0</v>
@@ -2924,7 +2910,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>20.0</v>
@@ -2932,7 +2918,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>16.0</v>
@@ -2940,7 +2926,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>14.0</v>
@@ -2948,7 +2934,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>12.0</v>
@@ -3142,7 +3128,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -3250,331 +3236,331 @@
         <v>5</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP1" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>5</v>
@@ -3624,492 +3610,492 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="AL2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AM2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BU2" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="BV2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BW2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BX2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="CP2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="DE2" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="DF2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DG2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DH2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DH2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DQ2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DR2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="DV2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="DV2" s="1" t="s">
+      <c r="DW2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="DW2" s="1" t="s">
+      <c r="DX2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="DX2" s="1" t="s">
+      <c r="DY2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="DY2" s="1" t="s">
+      <c r="DZ2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="DZ2" s="1" t="s">
+      <c r="EA2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="EA2" s="1" t="s">
+      <c r="EB2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="EB2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="EC2" s="1" t="s">
+      <c r="ED2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="ED2" s="1" t="s">
+      <c r="EE2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="EE2" s="1" t="s">
+      <c r="EF2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="EF2" s="1" t="s">
+      <c r="EG2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="EG2" s="1" t="s">
+      <c r="EH2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="EH2" s="1" t="s">
+      <c r="EI2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="EI2" s="1" t="s">
+      <c r="EJ2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="EJ2" s="1" t="s">
+      <c r="EK2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="EK2" s="1" t="s">
+      <c r="EL2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="EL2" s="1" t="s">
+      <c r="EM2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="EM2" s="1" t="s">
+      <c r="EN2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="EO2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="EO2" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="EP2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="EQ2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="ER2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="ER2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="EV2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="EW2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="EX2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="EX2" s="1" t="s">
+      <c r="EY2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="EY2" s="1" t="s">
+      <c r="EZ2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="EZ2" s="1" t="s">
+      <c r="FA2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="FB2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="FC2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="FD2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="FE2" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="FE2" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -4594,7 +4580,7 @@
     </row>
     <row r="4" ht="30.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -5079,7 +5065,7 @@
     </row>
     <row r="5" ht="30.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
@@ -5564,7 +5550,7 @@
     </row>
     <row r="6" ht="30.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
@@ -6049,7 +6035,7 @@
     </row>
     <row r="7" ht="30.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -6731,7 +6717,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -6839,331 +6825,331 @@
         <v>5</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DG1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="ER1" s="1" t="s">
         <v>5</v>
@@ -7213,498 +7199,498 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="AM2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BV2" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="BW2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BX2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BY2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="CP2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="DF2" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="DG2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DH2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DI2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DQ2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DR2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="DV2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="DV2" s="1" t="s">
+      <c r="DW2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="DW2" s="1" t="s">
+      <c r="DX2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="DX2" s="1" t="s">
+      <c r="DY2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="DY2" s="1" t="s">
+      <c r="DZ2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="DZ2" s="1" t="s">
+      <c r="EA2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="EA2" s="1" t="s">
+      <c r="EB2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="EB2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="EC2" s="1" t="s">
+      <c r="ED2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="ED2" s="1" t="s">
+      <c r="EE2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="EE2" s="1" t="s">
+      <c r="EF2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="EF2" s="1" t="s">
+      <c r="EG2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="EG2" s="1" t="s">
+      <c r="EH2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="EH2" s="1" t="s">
+      <c r="EI2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="EI2" s="1" t="s">
+      <c r="EJ2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="EJ2" s="1" t="s">
+      <c r="EK2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="EK2" s="1" t="s">
+      <c r="EL2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="EL2" s="1" t="s">
+      <c r="EM2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="EM2" s="1" t="s">
+      <c r="EN2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="EO2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="EO2" s="1" t="s">
+      <c r="EP2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="EP2" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="EQ2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="ER2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="ES2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="EV2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="EW2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="EX2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EX2" s="1" t="s">
+      <c r="EY2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="EY2" s="1" t="s">
+      <c r="EZ2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="EZ2" s="1" t="s">
+      <c r="FA2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="FB2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="FC2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="FD2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="FE2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="FE2" s="1" t="s">
+      <c r="FF2" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="FF2" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>5</v>
@@ -8189,10 +8175,10 @@
     </row>
     <row r="4" ht="30.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>5</v>
@@ -8677,10 +8663,10 @@
     </row>
     <row r="5" ht="30.0" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>5</v>
@@ -9165,10 +9151,10 @@
     </row>
     <row r="6" ht="30.0" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>5</v>
@@ -9653,10 +9639,10 @@
     </row>
     <row r="7" ht="30.0" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>5</v>
@@ -10141,10 +10127,10 @@
     </row>
     <row r="8" ht="30.0" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>5</v>
@@ -10629,10 +10615,10 @@
     </row>
     <row r="9" ht="30.0" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>5</v>
@@ -11117,10 +11103,10 @@
     </row>
     <row r="10" ht="30.0" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>5</v>
@@ -11605,10 +11591,10 @@
     </row>
     <row r="11" ht="30.0" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>5</v>
@@ -12093,10 +12079,10 @@
     </row>
     <row r="12" ht="30.0" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>5</v>
@@ -12581,10 +12567,10 @@
     </row>
     <row r="13" ht="30.0" customHeight="true">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>5</v>
@@ -13069,10 +13055,10 @@
     </row>
     <row r="14" ht="30.0" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>5</v>
@@ -13557,10 +13543,10 @@
     </row>
     <row r="15" ht="30.0" customHeight="true">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>5</v>
@@ -14045,10 +14031,10 @@
     </row>
     <row r="16" ht="30.0" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>5</v>
@@ -14533,10 +14519,10 @@
     </row>
     <row r="17" ht="30.0" customHeight="true">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>5</v>
@@ -15021,10 +15007,10 @@
     </row>
     <row r="18" ht="30.0" customHeight="true">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>5</v>
@@ -15509,10 +15495,10 @@
     </row>
     <row r="19" ht="30.0" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>5</v>
@@ -15997,10 +15983,10 @@
     </row>
     <row r="20" ht="30.0" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>5</v>
@@ -16485,10 +16471,10 @@
     </row>
     <row r="21" ht="30.0" customHeight="true">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>5</v>
@@ -16973,10 +16959,10 @@
     </row>
     <row r="22" ht="30.0" customHeight="true">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>5</v>
@@ -17461,10 +17447,10 @@
     </row>
     <row r="23" ht="30.0" customHeight="true">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>5</v>
@@ -17949,10 +17935,10 @@
     </row>
     <row r="24" ht="30.0" customHeight="true">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>5</v>
@@ -18437,10 +18423,10 @@
     </row>
     <row r="25" ht="30.0" customHeight="true">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>5</v>
@@ -18925,10 +18911,10 @@
     </row>
     <row r="26" ht="30.0" customHeight="true">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>5</v>
@@ -19413,10 +19399,10 @@
     </row>
     <row r="27" ht="30.0" customHeight="true">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>5</v>
@@ -19901,10 +19887,10 @@
     </row>
     <row r="28" ht="30.0" customHeight="true">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>5</v>
@@ -20389,10 +20375,10 @@
     </row>
     <row r="29" ht="30.0" customHeight="true">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>5</v>
@@ -20877,10 +20863,10 @@
     </row>
     <row r="30" ht="30.0" customHeight="true">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>5</v>
@@ -21365,10 +21351,10 @@
     </row>
     <row r="31" ht="30.0" customHeight="true">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>5</v>
@@ -21853,10 +21839,10 @@
     </row>
     <row r="32" ht="30.0" customHeight="true">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>5</v>
@@ -22341,10 +22327,10 @@
     </row>
     <row r="33" ht="30.0" customHeight="true">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>5</v>
@@ -22829,10 +22815,10 @@
     </row>
     <row r="34" ht="30.0" customHeight="true">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>5</v>
@@ -23317,10 +23303,10 @@
     </row>
     <row r="35" ht="30.0" customHeight="true">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>5</v>
@@ -23805,10 +23791,10 @@
     </row>
     <row r="36" ht="30.0" customHeight="true">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>5</v>
@@ -24293,10 +24279,10 @@
     </row>
     <row r="37" ht="30.0" customHeight="true">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>5</v>
@@ -24781,10 +24767,10 @@
     </row>
     <row r="38" ht="30.0" customHeight="true">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>5</v>
@@ -25269,10 +25255,10 @@
     </row>
     <row r="39" ht="30.0" customHeight="true">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>5</v>
@@ -25757,10 +25743,10 @@
     </row>
     <row r="40" ht="30.0" customHeight="true">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>5</v>
@@ -26245,10 +26231,10 @@
     </row>
     <row r="41" ht="30.0" customHeight="true">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>5</v>
@@ -26733,10 +26719,10 @@
     </row>
     <row r="42" ht="30.0" customHeight="true">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>5</v>
@@ -27221,10 +27207,10 @@
     </row>
     <row r="43" ht="30.0" customHeight="true">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>5</v>
@@ -27709,10 +27695,10 @@
     </row>
     <row r="44" ht="30.0" customHeight="true">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>5</v>
@@ -28197,10 +28183,10 @@
     </row>
     <row r="45" ht="30.0" customHeight="true">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>5</v>
@@ -28685,10 +28671,10 @@
     </row>
     <row r="46" ht="30.0" customHeight="true">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>5</v>
@@ -29173,10 +29159,10 @@
     </row>
     <row r="47" ht="30.0" customHeight="true">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>5</v>
@@ -29661,10 +29647,10 @@
     </row>
     <row r="48" ht="30.0" customHeight="true">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>5</v>
@@ -30149,10 +30135,10 @@
     </row>
     <row r="49" ht="30.0" customHeight="true">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>5</v>
@@ -30637,10 +30623,10 @@
     </row>
     <row r="50" ht="30.0" customHeight="true">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>5</v>
@@ -31125,10 +31111,10 @@
     </row>
     <row r="51" ht="30.0" customHeight="true">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>5</v>
@@ -31613,10 +31599,10 @@
     </row>
     <row r="52" ht="30.0" customHeight="true">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>5</v>
@@ -32101,10 +32087,10 @@
     </row>
     <row r="53" ht="30.0" customHeight="true">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>5</v>
@@ -32589,10 +32575,10 @@
     </row>
     <row r="54" ht="30.0" customHeight="true">
       <c r="A54" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>5</v>
@@ -33077,10 +33063,10 @@
     </row>
     <row r="55" ht="30.0" customHeight="true">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>5</v>
@@ -33565,10 +33551,10 @@
     </row>
     <row r="56" ht="30.0" customHeight="true">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>5</v>
@@ -34053,10 +34039,10 @@
     </row>
     <row r="57" ht="30.0" customHeight="true">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>5</v>
@@ -34541,10 +34527,10 @@
     </row>
     <row r="58" ht="30.0" customHeight="true">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>5</v>
@@ -35029,10 +35015,10 @@
     </row>
     <row r="59" ht="30.0" customHeight="true">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>5</v>
@@ -35517,10 +35503,10 @@
     </row>
     <row r="60" ht="30.0" customHeight="true">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>5</v>
@@ -36005,10 +35991,10 @@
     </row>
     <row r="61" ht="30.0" customHeight="true">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>5</v>
@@ -36493,10 +36479,10 @@
     </row>
     <row r="62" ht="30.0" customHeight="true">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>5</v>
@@ -36981,10 +36967,10 @@
     </row>
     <row r="63" ht="30.0" customHeight="true">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>5</v>
@@ -37469,10 +37455,10 @@
     </row>
     <row r="64" ht="30.0" customHeight="true">
       <c r="A64" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>5</v>
@@ -37957,10 +37943,10 @@
     </row>
     <row r="65" ht="30.0" customHeight="true">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>5</v>
@@ -38445,10 +38431,10 @@
     </row>
     <row r="66" ht="30.0" customHeight="true">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>5</v>
@@ -38933,10 +38919,10 @@
     </row>
     <row r="67" ht="30.0" customHeight="true">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>5</v>
@@ -39421,10 +39407,10 @@
     </row>
     <row r="68" ht="30.0" customHeight="true">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>5</v>
@@ -39909,10 +39895,10 @@
     </row>
     <row r="69" ht="30.0" customHeight="true">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>5</v>
@@ -40397,10 +40383,10 @@
     </row>
     <row r="70" ht="30.0" customHeight="true">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>5</v>
@@ -40885,10 +40871,10 @@
     </row>
     <row r="71" ht="30.0" customHeight="true">
       <c r="A71" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>5</v>
@@ -41373,10 +41359,10 @@
     </row>
     <row r="72" ht="30.0" customHeight="true">
       <c r="A72" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>5</v>
@@ -41861,10 +41847,10 @@
     </row>
     <row r="73" ht="30.0" customHeight="true">
       <c r="A73" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>5</v>
@@ -42349,10 +42335,10 @@
     </row>
     <row r="74" ht="30.0" customHeight="true">
       <c r="A74" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>5</v>
@@ -42837,10 +42823,10 @@
     </row>
     <row r="75" ht="30.0" customHeight="true">
       <c r="A75" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>5</v>
@@ -43325,10 +43311,10 @@
     </row>
     <row r="76" ht="30.0" customHeight="true">
       <c r="A76" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>5</v>
@@ -43813,10 +43799,10 @@
     </row>
     <row r="77" ht="30.0" customHeight="true">
       <c r="A77" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>5</v>
@@ -44301,10 +44287,10 @@
     </row>
     <row r="78" ht="30.0" customHeight="true">
       <c r="A78" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>5</v>
@@ -44789,10 +44775,10 @@
     </row>
     <row r="79" ht="30.0" customHeight="true">
       <c r="A79" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>5</v>
@@ -45277,10 +45263,10 @@
     </row>
     <row r="80" ht="30.0" customHeight="true">
       <c r="A80" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>5</v>
@@ -45765,10 +45751,10 @@
     </row>
     <row r="81" ht="30.0" customHeight="true">
       <c r="A81" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>5</v>
@@ -46253,10 +46239,10 @@
     </row>
     <row r="82" ht="30.0" customHeight="true">
       <c r="A82" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>5</v>
@@ -46816,481 +46802,481 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3"/>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5"/>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7"/>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9"/>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11"/>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13"/>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15"/>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17"/>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19"/>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21"/>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23"/>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25"/>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27"/>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29"/>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31"/>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33"/>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35"/>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37"/>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39"/>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41"/>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43"/>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45"/>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47"/>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49"/>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51"/>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53"/>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55"/>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57"/>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59"/>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61"/>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63"/>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65"/>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67"/>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69"/>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71"/>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73"/>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75"/>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77"/>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79"/>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81"/>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83"/>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85"/>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87"/>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89"/>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91"/>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93"/>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95"/>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97"/>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99"/>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101"/>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103"/>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105"/>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107"/>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109"/>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111"/>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113"/>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115"/>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117"/>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119"/>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121"/>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123"/>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125"/>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127"/>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="129"/>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131"/>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133"/>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135"/>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137"/>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="139"/>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="141"/>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="143"/>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145"/>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147"/>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="149"/>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="151"/>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="153"/>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="155"/>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="157"/>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="159"/>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="161"/>

--- a/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
+++ b/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
@@ -7,10 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Configuration" r:id="rId3" sheetId="1"/>
-    <sheet name="Persons" r:id="rId4" sheetId="2"/>
-    <sheet name="Meetings" r:id="rId5" sheetId="3"/>
-    <sheet name="Days" r:id="rId6" sheetId="4"/>
-    <sheet name="Rooms" r:id="rId7" sheetId="5"/>
+    <sheet name="Days" r:id="rId4" sheetId="2"/>
+    <sheet name="Rooms" r:id="rId5" sheetId="3"/>
+    <sheet name="Persons" r:id="rId6" sheetId="4"/>
+    <sheet name="Meetings" r:id="rId7" sheetId="5"/>
     <sheet name="Rooms view" r:id="rId8" sheetId="6"/>
     <sheet name="Persons view" r:id="rId9" sheetId="7"/>
     <sheet name="Printed form view" r:id="rId10" sheetId="8"/>
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14899" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15052" uniqueCount="342">
   <si>
-    <t>Thu 2018-07-05 09:42</t>
+    <t>Fri 2018-10-05 13:50</t>
   </si>
   <si>
     <t>Constraint</t>
@@ -69,7 +69,64 @@
     <t>Assign larger rooms first</t>
   </si>
   <si>
-    <t>Room Stability</t>
+    <t>Room stability</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Lunch hour start time</t>
+  </si>
+  <si>
+    <t>Mon 2018-01-01</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>Tue 2018-01-02</t>
+  </si>
+  <si>
+    <t>Wed 2018-01-03</t>
+  </si>
+  <si>
+    <t>Thu 2018-01-04</t>
+  </si>
+  <si>
+    <t>Fri 2018-01-05</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>R 1</t>
+  </si>
+  <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
   </si>
   <si>
     <t>Full name</t>
@@ -214,6 +271,12 @@
   </si>
   <si>
     <t>Preferred attendance list</t>
+  </si>
+  <si>
+    <t>Starting time</t>
+  </si>
+  <si>
+    <t>Room</t>
   </si>
   <si>
     <t>Strategize B2B</t>
@@ -625,66 +688,6 @@
   </si>
   <si>
     <t>Ivy Cole, Chad Li, Beth Green, Chad King, Hugo Watt</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Lunch hour start time</t>
-  </si>
-  <si>
-    <t>Mon 2018-01-01</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>Tue 2018-01-02</t>
-  </si>
-  <si>
-    <t>Wed 2018-01-03</t>
-  </si>
-  <si>
-    <t>Thu 2018-01-04</t>
-  </si>
-  <si>
-    <t>Fri 2018-01-05</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>R 1</t>
-  </si>
-  <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Room</t>
   </si>
   <si>
     <t>08:15</t>
@@ -1175,7 +1178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1184,9 +1187,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.33203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.04296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1348,221 +1351,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" state="frozen" topLeftCell="B1" activePane="topRight"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>57</v>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1573,7 +1458,301 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.8359375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" state="frozen" topLeftCell="B1" activePane="topRight"/>
+      <selection pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -1589,34 +1768,46 @@
     <col min="5" max="5" width="19.53125" customWidth="true"/>
     <col min="6" max="6" width="19.53125" customWidth="true"/>
     <col min="7" max="7" width="19.53125" customWidth="true"/>
+    <col min="8" max="8" width="19.53125" customWidth="true"/>
+    <col min="9" max="9" width="19.53125" customWidth="true"/>
+    <col min="10" max="10" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1631,15 +1822,24 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1654,15 +1854,24 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1677,15 +1886,24 @@
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1700,15 +1918,24 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -1723,15 +1950,24 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1746,15 +1982,24 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1769,15 +2014,24 @@
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -1792,15 +2046,24 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -1815,15 +2078,24 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -1838,15 +2110,24 @@
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -1861,15 +2142,24 @@
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -1884,15 +2174,24 @@
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -1907,15 +2206,24 @@
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -1930,15 +2238,24 @@
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
@@ -1953,15 +2270,24 @@
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -1976,15 +2302,24 @@
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -1999,15 +2334,24 @@
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -2022,15 +2366,24 @@
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>114</v>
+        <v>135</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
@@ -2045,15 +2398,24 @@
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
@@ -2068,15 +2430,24 @@
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -2091,15 +2462,24 @@
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -2114,15 +2494,24 @@
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
@@ -2137,15 +2526,24 @@
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
@@ -2160,15 +2558,24 @@
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -2183,15 +2590,24 @@
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -2206,15 +2622,24 @@
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -2229,15 +2654,24 @@
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -2252,15 +2686,24 @@
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -2275,15 +2718,24 @@
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -2298,15 +2750,24 @@
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
@@ -2321,15 +2782,24 @@
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>149</v>
+        <v>170</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
@@ -2344,15 +2814,24 @@
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -2367,15 +2846,24 @@
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
@@ -2390,15 +2878,24 @@
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>158</v>
+        <v>179</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
@@ -2413,15 +2910,24 @@
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
@@ -2436,15 +2942,24 @@
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
@@ -2459,15 +2974,24 @@
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
@@ -2482,15 +3006,24 @@
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
@@ -2505,15 +3038,24 @@
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>171</v>
+        <v>192</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
@@ -2528,15 +3070,24 @@
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>174</v>
+        <v>195</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
@@ -2551,15 +3102,24 @@
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>177</v>
+        <v>198</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
@@ -2574,15 +3134,24 @@
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
@@ -2597,15 +3166,24 @@
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>183</v>
+        <v>204</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
@@ -2620,15 +3198,24 @@
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>186</v>
+        <v>207</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
@@ -2643,15 +3230,24 @@
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -2666,15 +3262,24 @@
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>191</v>
+        <v>212</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
@@ -2689,15 +3294,24 @@
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -2712,15 +3326,24 @@
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>196</v>
+        <v>217</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
@@ -2735,15 +3358,24 @@
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>199</v>
+        <v>220</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
@@ -2758,186 +3390,19 @@
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="16.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="23.6875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="7.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.10546875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>12.0</v>
+      <c r="H51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +3416,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:FF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2960,167 +3425,167 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="53" max="53" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="54" max="54" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="55" max="55" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="56" max="56" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="57" max="57" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="58" max="58" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="59" max="59" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="60" max="60" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="61" max="61" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="62" max="62" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="63" max="63" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="64" max="64" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="65" max="65" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="66" max="66" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="67" max="67" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="68" max="68" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="69" max="69" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="70" max="70" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="71" max="71" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="72" max="72" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="73" max="73" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="74" max="74" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="75" max="75" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="76" max="76" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="77" max="77" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="78" max="78" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="79" max="79" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="80" max="80" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="81" max="81" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="82" max="82" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="83" max="83" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="84" max="84" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="85" max="85" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="86" max="86" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="87" max="87" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="88" max="88" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="89" max="89" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="90" max="90" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="91" max="91" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="92" max="92" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="93" max="93" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="94" max="94" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="95" max="95" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="96" max="96" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="97" max="97" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="98" max="98" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="99" max="99" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="100" max="100" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="101" max="101" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="102" max="102" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="103" max="103" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="104" max="104" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="105" max="105" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="106" max="106" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="107" max="107" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="108" max="108" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="109" max="109" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="110" max="110" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="111" max="111" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="112" max="112" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="113" max="113" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="114" max="114" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="115" max="115" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="116" max="116" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="117" max="117" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="118" max="118" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="119" max="119" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="120" max="120" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="121" max="121" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="122" max="122" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="123" max="123" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="124" max="124" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="125" max="125" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="126" max="126" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="127" max="127" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="128" max="128" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="129" max="129" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="130" max="130" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="131" max="131" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="132" max="132" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="133" max="133" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="134" max="134" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="135" max="135" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="136" max="136" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="137" max="137" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="138" max="138" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="139" max="139" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="140" max="140" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="141" max="141" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="142" max="142" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="143" max="143" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="144" max="144" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="145" max="145" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="146" max="146" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="147" max="147" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="148" max="148" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="149" max="149" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="150" max="150" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="151" max="151" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="152" max="152" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="153" max="153" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="154" max="154" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="155" max="155" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="156" max="156" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="157" max="157" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="158" max="158" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="159" max="159" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="160" max="160" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="161" max="161" width="7.01953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="54" max="54" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="55" max="55" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="57" max="57" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="60" max="60" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="61" max="61" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="63" max="63" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="64" max="64" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="66" max="66" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="67" max="67" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="68" max="68" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="69" max="69" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="70" max="70" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="71" max="71" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="72" max="72" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="73" max="73" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="74" max="74" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="75" max="75" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="76" max="76" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="77" max="77" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="78" max="78" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="79" max="79" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="80" max="80" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="81" max="81" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="82" max="82" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="83" max="83" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="84" max="84" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="85" max="85" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="86" max="86" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="87" max="87" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="88" max="88" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="89" max="89" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="90" max="90" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="91" max="91" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="92" max="92" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="93" max="93" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="94" max="94" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="95" max="95" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="96" max="96" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="97" max="97" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="98" max="98" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="99" max="99" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="100" max="100" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="101" max="101" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="102" max="102" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="103" max="103" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="104" max="104" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="105" max="105" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="106" max="106" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="107" max="107" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="108" max="108" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="109" max="109" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="110" max="110" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="111" max="111" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="112" max="112" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="113" max="113" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="114" max="114" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="115" max="115" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="116" max="116" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="117" max="117" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="118" max="118" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="119" max="119" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="120" max="120" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="121" max="121" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="122" max="122" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="123" max="123" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="124" max="124" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="125" max="125" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="126" max="126" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="127" max="127" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="128" max="128" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="129" max="129" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="130" max="130" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="131" max="131" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="132" max="132" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="133" max="133" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="134" max="134" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="135" max="135" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="136" max="136" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="137" max="137" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="138" max="138" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="139" max="139" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="140" max="140" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="141" max="141" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="142" max="142" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="143" max="143" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="144" max="144" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="145" max="145" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="146" max="146" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="147" max="147" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="148" max="148" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="149" max="149" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="150" max="150" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="151" max="151" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="152" max="152" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="153" max="153" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="154" max="154" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="155" max="155" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="156" max="156" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="157" max="157" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="158" max="158" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="159" max="159" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="160" max="160" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="161" max="161" width="6.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3128,7 +3593,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -3236,7 +3701,7 @@
         <v>5</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>5</v>
@@ -3344,7 +3809,7 @@
         <v>5</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>5</v>
@@ -3452,7 +3917,7 @@
         <v>5</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="DG1" s="1" t="s">
         <v>5</v>
@@ -3560,7 +4025,7 @@
         <v>5</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="EQ1" s="1" t="s">
         <v>5</v>
@@ -3610,492 +4075,492 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BW2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BV2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="DH2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="DQ2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="DR2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="DV2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="DW2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="DX2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="CP2" s="1" t="s">
+      <c r="DY2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="DZ2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="EA2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="EB2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="ED2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="EE2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="EF2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="EG2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="EH2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="EI2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="EJ2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="EK2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="EL2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="EM2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="EN2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="DF2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DH2" s="1" t="s">
+      <c r="EO2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="ER2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="EV2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="EW2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="EX2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="EY2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="EZ2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="FA2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="FB2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="FC2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="FD2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="DV2" s="1" t="s">
+      <c r="FE2" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="DZ2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="EB2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="EH2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="EJ2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="EK2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="EL2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="EN2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="EO2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="EP2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="EQ2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="ER2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="ES2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="ET2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="EU2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="EV2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="EW2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EX2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="EY2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="EZ2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="FA2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="FB2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="FC2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="FD2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="FE2" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -4580,7 +5045,7 @@
     </row>
     <row r="4" ht="30.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -5065,7 +5530,7 @@
     </row>
     <row r="5" ht="30.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
@@ -5550,7 +6015,7 @@
     </row>
     <row r="6" ht="30.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
@@ -6035,7 +6500,7 @@
     </row>
     <row r="7" ht="30.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -6536,7 +7001,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:FG82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="2.0" state="frozen" topLeftCell="C3" activePane="bottomRight"/>
@@ -6545,168 +7010,168 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.08984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="53" max="53" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="54" max="54" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="55" max="55" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="56" max="56" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="57" max="57" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="58" max="58" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="59" max="59" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="60" max="60" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="61" max="61" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="62" max="62" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="63" max="63" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="64" max="64" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="65" max="65" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="66" max="66" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="67" max="67" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="68" max="68" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="69" max="69" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="70" max="70" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="71" max="71" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="72" max="72" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="73" max="73" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="74" max="74" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="75" max="75" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="76" max="76" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="77" max="77" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="78" max="78" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="79" max="79" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="80" max="80" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="81" max="81" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="82" max="82" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="83" max="83" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="84" max="84" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="85" max="85" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="86" max="86" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="87" max="87" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="88" max="88" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="89" max="89" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="90" max="90" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="91" max="91" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="92" max="92" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="93" max="93" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="94" max="94" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="95" max="95" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="96" max="96" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="97" max="97" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="98" max="98" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="99" max="99" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="100" max="100" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="101" max="101" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="102" max="102" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="103" max="103" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="104" max="104" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="105" max="105" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="106" max="106" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="107" max="107" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="108" max="108" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="109" max="109" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="110" max="110" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="111" max="111" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="112" max="112" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="113" max="113" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="114" max="114" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="115" max="115" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="116" max="116" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="117" max="117" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="118" max="118" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="119" max="119" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="120" max="120" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="121" max="121" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="122" max="122" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="123" max="123" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="124" max="124" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="125" max="125" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="126" max="126" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="127" max="127" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="128" max="128" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="129" max="129" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="130" max="130" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="131" max="131" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="132" max="132" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="133" max="133" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="134" max="134" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="135" max="135" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="136" max="136" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="137" max="137" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="138" max="138" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="139" max="139" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="140" max="140" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="141" max="141" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="142" max="142" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="143" max="143" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="144" max="144" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="145" max="145" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="146" max="146" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="147" max="147" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="148" max="148" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="149" max="149" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="150" max="150" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="151" max="151" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="152" max="152" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="153" max="153" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="154" max="154" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="155" max="155" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="156" max="156" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="157" max="157" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="158" max="158" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="159" max="159" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="160" max="160" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="161" max="161" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="162" max="162" width="7.01953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.35546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="54" max="54" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="55" max="55" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="57" max="57" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="60" max="60" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="61" max="61" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="63" max="63" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="64" max="64" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="66" max="66" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="67" max="67" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="68" max="68" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="69" max="69" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="70" max="70" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="71" max="71" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="72" max="72" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="73" max="73" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="74" max="74" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="75" max="75" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="76" max="76" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="77" max="77" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="78" max="78" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="79" max="79" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="80" max="80" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="81" max="81" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="82" max="82" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="83" max="83" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="84" max="84" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="85" max="85" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="86" max="86" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="87" max="87" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="88" max="88" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="89" max="89" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="90" max="90" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="91" max="91" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="92" max="92" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="93" max="93" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="94" max="94" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="95" max="95" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="96" max="96" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="97" max="97" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="98" max="98" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="99" max="99" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="100" max="100" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="101" max="101" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="102" max="102" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="103" max="103" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="104" max="104" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="105" max="105" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="106" max="106" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="107" max="107" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="108" max="108" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="109" max="109" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="110" max="110" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="111" max="111" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="112" max="112" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="113" max="113" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="114" max="114" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="115" max="115" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="116" max="116" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="117" max="117" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="118" max="118" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="119" max="119" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="120" max="120" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="121" max="121" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="122" max="122" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="123" max="123" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="124" max="124" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="125" max="125" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="126" max="126" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="127" max="127" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="128" max="128" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="129" max="129" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="130" max="130" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="131" max="131" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="132" max="132" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="133" max="133" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="134" max="134" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="135" max="135" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="136" max="136" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="137" max="137" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="138" max="138" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="139" max="139" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="140" max="140" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="141" max="141" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="142" max="142" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="143" max="143" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="144" max="144" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="145" max="145" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="146" max="146" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="147" max="147" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="148" max="148" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="149" max="149" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="150" max="150" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="151" max="151" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="152" max="152" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="153" max="153" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="154" max="154" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="155" max="155" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="156" max="156" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="157" max="157" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="158" max="158" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="159" max="159" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="160" max="160" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="161" max="161" width="6.12109375" customWidth="true" bestFit="true"/>
+    <col min="162" max="162" width="6.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6717,7 +7182,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -6825,7 +7290,7 @@
         <v>5</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>5</v>
@@ -6933,7 +7398,7 @@
         <v>5</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>5</v>
@@ -7041,7 +7506,7 @@
         <v>5</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="DH1" s="1" t="s">
         <v>5</v>
@@ -7149,7 +7614,7 @@
         <v>5</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="ER1" s="1" t="s">
         <v>5</v>
@@ -7199,498 +7664,498 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BW2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BY2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DH2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="DQ2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="DR2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="DV2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="DW2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="DX2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="CP2" s="1" t="s">
+      <c r="DY2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="DZ2" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="EA2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="EB2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="ED2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="EE2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="EF2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="EG2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="EH2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="EI2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="EJ2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="EK2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="EL2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="EM2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="EN2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="DF2" s="1" t="s">
+      <c r="EO2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="DG2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="DH2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DI2" s="1" t="s">
+      <c r="EP2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="ER2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="EV2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="EW2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="EX2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="EY2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="EZ2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="FA2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="FB2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="FC2" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="FD2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="DV2" s="1" t="s">
+      <c r="FE2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="DW2" s="1" t="s">
+      <c r="FF2" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DZ2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="EB2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="EH2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="EJ2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="EK2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="EL2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="EM2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="EN2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="EO2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="EP2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="EQ2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="ER2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="ES2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="ET2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="EU2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="EV2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="EW2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="EX2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EY2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="EZ2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="FA2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="FB2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="FC2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="FD2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="FE2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="FF2" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>5</v>
@@ -8175,10 +8640,10 @@
     </row>
     <row r="4" ht="30.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>5</v>
@@ -8663,10 +9128,10 @@
     </row>
     <row r="5" ht="30.0" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>5</v>
@@ -9151,10 +9616,10 @@
     </row>
     <row r="6" ht="30.0" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>5</v>
@@ -9639,10 +10104,10 @@
     </row>
     <row r="7" ht="30.0" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>5</v>
@@ -10127,10 +10592,10 @@
     </row>
     <row r="8" ht="30.0" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>5</v>
@@ -10615,10 +11080,10 @@
     </row>
     <row r="9" ht="30.0" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>5</v>
@@ -11103,10 +11568,10 @@
     </row>
     <row r="10" ht="30.0" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>5</v>
@@ -11591,10 +12056,10 @@
     </row>
     <row r="11" ht="30.0" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>5</v>
@@ -12079,10 +12544,10 @@
     </row>
     <row r="12" ht="30.0" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>5</v>
@@ -12567,10 +13032,10 @@
     </row>
     <row r="13" ht="30.0" customHeight="true">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>5</v>
@@ -13055,10 +13520,10 @@
     </row>
     <row r="14" ht="30.0" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>5</v>
@@ -13543,10 +14008,10 @@
     </row>
     <row r="15" ht="30.0" customHeight="true">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>5</v>
@@ -14031,10 +14496,10 @@
     </row>
     <row r="16" ht="30.0" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>5</v>
@@ -14519,10 +14984,10 @@
     </row>
     <row r="17" ht="30.0" customHeight="true">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>5</v>
@@ -15007,10 +15472,10 @@
     </row>
     <row r="18" ht="30.0" customHeight="true">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>5</v>
@@ -15495,10 +15960,10 @@
     </row>
     <row r="19" ht="30.0" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>5</v>
@@ -15983,10 +16448,10 @@
     </row>
     <row r="20" ht="30.0" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>5</v>
@@ -16471,10 +16936,10 @@
     </row>
     <row r="21" ht="30.0" customHeight="true">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>5</v>
@@ -16959,10 +17424,10 @@
     </row>
     <row r="22" ht="30.0" customHeight="true">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>5</v>
@@ -17447,10 +17912,10 @@
     </row>
     <row r="23" ht="30.0" customHeight="true">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>5</v>
@@ -17935,10 +18400,10 @@
     </row>
     <row r="24" ht="30.0" customHeight="true">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>5</v>
@@ -18423,10 +18888,10 @@
     </row>
     <row r="25" ht="30.0" customHeight="true">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>5</v>
@@ -18911,10 +19376,10 @@
     </row>
     <row r="26" ht="30.0" customHeight="true">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>5</v>
@@ -19399,10 +19864,10 @@
     </row>
     <row r="27" ht="30.0" customHeight="true">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>5</v>
@@ -19887,10 +20352,10 @@
     </row>
     <row r="28" ht="30.0" customHeight="true">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>5</v>
@@ -20375,10 +20840,10 @@
     </row>
     <row r="29" ht="30.0" customHeight="true">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>5</v>
@@ -20863,10 +21328,10 @@
     </row>
     <row r="30" ht="30.0" customHeight="true">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>5</v>
@@ -21351,10 +21816,10 @@
     </row>
     <row r="31" ht="30.0" customHeight="true">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>5</v>
@@ -21839,10 +22304,10 @@
     </row>
     <row r="32" ht="30.0" customHeight="true">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>5</v>
@@ -22327,10 +22792,10 @@
     </row>
     <row r="33" ht="30.0" customHeight="true">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>5</v>
@@ -22815,10 +23280,10 @@
     </row>
     <row r="34" ht="30.0" customHeight="true">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>5</v>
@@ -23303,10 +23768,10 @@
     </row>
     <row r="35" ht="30.0" customHeight="true">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>5</v>
@@ -23791,10 +24256,10 @@
     </row>
     <row r="36" ht="30.0" customHeight="true">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>5</v>
@@ -24279,10 +24744,10 @@
     </row>
     <row r="37" ht="30.0" customHeight="true">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>5</v>
@@ -24767,10 +25232,10 @@
     </row>
     <row r="38" ht="30.0" customHeight="true">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>5</v>
@@ -25255,10 +25720,10 @@
     </row>
     <row r="39" ht="30.0" customHeight="true">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>5</v>
@@ -25743,10 +26208,10 @@
     </row>
     <row r="40" ht="30.0" customHeight="true">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>5</v>
@@ -26231,10 +26696,10 @@
     </row>
     <row r="41" ht="30.0" customHeight="true">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>5</v>
@@ -26719,10 +27184,10 @@
     </row>
     <row r="42" ht="30.0" customHeight="true">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>5</v>
@@ -27207,10 +27672,10 @@
     </row>
     <row r="43" ht="30.0" customHeight="true">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>5</v>
@@ -27695,10 +28160,10 @@
     </row>
     <row r="44" ht="30.0" customHeight="true">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>5</v>
@@ -28183,10 +28648,10 @@
     </row>
     <row r="45" ht="30.0" customHeight="true">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>5</v>
@@ -28671,10 +29136,10 @@
     </row>
     <row r="46" ht="30.0" customHeight="true">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>5</v>
@@ -29159,10 +29624,10 @@
     </row>
     <row r="47" ht="30.0" customHeight="true">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>5</v>
@@ -29647,10 +30112,10 @@
     </row>
     <row r="48" ht="30.0" customHeight="true">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>5</v>
@@ -30135,10 +30600,10 @@
     </row>
     <row r="49" ht="30.0" customHeight="true">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>5</v>
@@ -30623,10 +31088,10 @@
     </row>
     <row r="50" ht="30.0" customHeight="true">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>5</v>
@@ -31111,10 +31576,10 @@
     </row>
     <row r="51" ht="30.0" customHeight="true">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>5</v>
@@ -31599,10 +32064,10 @@
     </row>
     <row r="52" ht="30.0" customHeight="true">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>5</v>
@@ -32087,10 +32552,10 @@
     </row>
     <row r="53" ht="30.0" customHeight="true">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>5</v>
@@ -32575,10 +33040,10 @@
     </row>
     <row r="54" ht="30.0" customHeight="true">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>5</v>
@@ -33063,10 +33528,10 @@
     </row>
     <row r="55" ht="30.0" customHeight="true">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>5</v>
@@ -33551,10 +34016,10 @@
     </row>
     <row r="56" ht="30.0" customHeight="true">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>5</v>
@@ -34039,10 +34504,10 @@
     </row>
     <row r="57" ht="30.0" customHeight="true">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>5</v>
@@ -34527,10 +34992,10 @@
     </row>
     <row r="58" ht="30.0" customHeight="true">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>5</v>
@@ -35015,10 +35480,10 @@
     </row>
     <row r="59" ht="30.0" customHeight="true">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>5</v>
@@ -35503,10 +35968,10 @@
     </row>
     <row r="60" ht="30.0" customHeight="true">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>5</v>
@@ -35991,10 +36456,10 @@
     </row>
     <row r="61" ht="30.0" customHeight="true">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>5</v>
@@ -36479,10 +36944,10 @@
     </row>
     <row r="62" ht="30.0" customHeight="true">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>5</v>
@@ -36967,10 +37432,10 @@
     </row>
     <row r="63" ht="30.0" customHeight="true">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>5</v>
@@ -37455,10 +37920,10 @@
     </row>
     <row r="64" ht="30.0" customHeight="true">
       <c r="A64" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>5</v>
@@ -37943,10 +38408,10 @@
     </row>
     <row r="65" ht="30.0" customHeight="true">
       <c r="A65" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>5</v>
@@ -38431,10 +38896,10 @@
     </row>
     <row r="66" ht="30.0" customHeight="true">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>5</v>
@@ -38919,10 +39384,10 @@
     </row>
     <row r="67" ht="30.0" customHeight="true">
       <c r="A67" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>5</v>
@@ -39407,10 +39872,10 @@
     </row>
     <row r="68" ht="30.0" customHeight="true">
       <c r="A68" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>5</v>
@@ -39895,10 +40360,10 @@
     </row>
     <row r="69" ht="30.0" customHeight="true">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>5</v>
@@ -40383,10 +40848,10 @@
     </row>
     <row r="70" ht="30.0" customHeight="true">
       <c r="A70" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>5</v>
@@ -40871,10 +41336,10 @@
     </row>
     <row r="71" ht="30.0" customHeight="true">
       <c r="A71" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>5</v>
@@ -41359,10 +41824,10 @@
     </row>
     <row r="72" ht="30.0" customHeight="true">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>5</v>
@@ -41847,10 +42312,10 @@
     </row>
     <row r="73" ht="30.0" customHeight="true">
       <c r="A73" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>5</v>
@@ -42335,10 +42800,10 @@
     </row>
     <row r="74" ht="30.0" customHeight="true">
       <c r="A74" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>5</v>
@@ -42823,10 +43288,10 @@
     </row>
     <row r="75" ht="30.0" customHeight="true">
       <c r="A75" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>5</v>
@@ -43311,10 +43776,10 @@
     </row>
     <row r="76" ht="30.0" customHeight="true">
       <c r="A76" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>5</v>
@@ -43799,10 +44264,10 @@
     </row>
     <row r="77" ht="30.0" customHeight="true">
       <c r="A77" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>5</v>
@@ -44287,10 +44752,10 @@
     </row>
     <row r="78" ht="30.0" customHeight="true">
       <c r="A78" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>5</v>
@@ -44775,10 +45240,10 @@
     </row>
     <row r="79" ht="30.0" customHeight="true">
       <c r="A79" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>5</v>
@@ -45263,10 +45728,10 @@
     </row>
     <row r="80" ht="30.0" customHeight="true">
       <c r="A80" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>5</v>
@@ -45751,10 +46216,10 @@
     </row>
     <row r="81" ht="30.0" customHeight="true">
       <c r="A81" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>5</v>
@@ -46239,10 +46704,10 @@
     </row>
     <row r="82" ht="30.0" customHeight="true">
       <c r="A82" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>5</v>
@@ -46783,7 +47248,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -46802,481 +47267,481 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3"/>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5"/>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7"/>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9"/>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11"/>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13"/>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15"/>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17"/>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19"/>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21"/>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23"/>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25"/>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27"/>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29"/>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31"/>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33"/>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35"/>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37"/>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39"/>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41"/>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43"/>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45"/>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47"/>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49"/>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51"/>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53"/>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55"/>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57"/>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59"/>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61"/>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63"/>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65"/>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67"/>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69"/>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71"/>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73"/>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75"/>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77"/>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79"/>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81"/>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83"/>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85"/>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87"/>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89"/>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91"/>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93"/>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95"/>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97"/>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99"/>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101"/>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103"/>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105"/>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107"/>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109"/>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111"/>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113"/>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115"/>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117"/>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119"/>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121"/>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123"/>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125"/>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127"/>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="129"/>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131"/>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133"/>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135"/>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137"/>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139"/>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141"/>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="143"/>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="145"/>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="147"/>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="149"/>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="151"/>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="153"/>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="155"/>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="157"/>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159"/>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="161"/>

--- a/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
+++ b/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15052" uniqueCount="342">
   <si>
-    <t>Fri 2018-10-05 13:50</t>
+    <t>Wed 2018-10-10 16:04</t>
   </si>
   <si>
     <t>Constraint</t>
@@ -1066,7 +1066,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,6 +1101,11 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1114,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1138,6 +1143,9 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>

--- a/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
+++ b/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15052" uniqueCount="342">
   <si>
-    <t>Wed 2018-10-10 16:04</t>
+    <t>Mon 2018-10-15 17:45</t>
   </si>
   <si>
     <t>Constraint</t>

--- a/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
+++ b/optaplanner-examples/data/meetingscheduling/unsolved/50meetings-160timegrains-5rooms.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15168" uniqueCount="364">
   <si>
-    <t>Fri 2022-11-25 12:05</t>
+    <t>Fri 2022-11-25 12:42</t>
   </si>
   <si>
     <t>Constraint</t>
